--- a/biology/Botanique/Daucinae/Daucinae.xlsx
+++ b/biology/Botanique/Daucinae/Daucinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Daucinae sont une sous-tribu de plantes de la sous-famille des Apioideae dans la famille des Apiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-tribu des Daucinae est décrite en 1827 par le botaniste belge Barthélemy Dumortier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-tribu des Daucinae est décrite en 1827 par le botaniste belge Barthélemy Dumortier.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La sous-tribu des Daucinae comprend les genres suivants selon NCBI et Banasiak et al., 2016[1],[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La sous-tribu des Daucinae comprend les genres suivants selon NCBI et Banasiak et al., 2016, :
 Agrocharis
 Ammodaucus
 Cuminum
@@ -566,7 +582,7 @@
 Rouya
 Thapsia
 Tornabenea
-Auxquels s'ajoutent deux autres genres toujours selon NCBI  (18 avril 2023)[3]:
+Auxquels s'ajoutent deux autres genres toujours selon NCBI  (18 avril 2023):
 Laserocarpum
 Portenschlagiella</t>
         </is>
